--- a/data/test/__df_dept_rate_future_1PD062550001_proj_1_Ratio_00_HC_0.xlsx
+++ b/data/test/__df_dept_rate_future_1PD062550001_proj_1_Ratio_00_HC_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\API2\data\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE094F5-079D-4A68-BF8A-BF763E5D9A8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959F4DE5-A2FD-40A9-A80B-10DBB84F965F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="27">
   <si>
     <t>div</t>
   </si>
@@ -63,6 +63,45 @@
   </si>
   <si>
     <t>23R300</t>
+  </si>
+  <si>
+    <t>Div</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>b_1</t>
+  </si>
+  <si>
+    <t>b_2</t>
+  </si>
+  <si>
+    <t>b_3</t>
+  </si>
+  <si>
+    <t>a_1</t>
+  </si>
+  <si>
+    <t>a_2</t>
+  </si>
+  <si>
+    <t>a_3</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>RH</t>
   </si>
 </sst>
 </file>
@@ -95,12 +134,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -130,12 +175,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -438,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -812,7 +859,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>44409</v>
       </c>
       <c r="C11" t="s">
@@ -839,7 +886,7 @@
       <c r="J11">
         <v>262.8</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>1.31</v>
       </c>
     </row>
@@ -847,7 +894,7 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>44409</v>
       </c>
       <c r="C12" t="s">
@@ -874,7 +921,7 @@
       <c r="J12">
         <v>3307.9</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>2.76</v>
       </c>
     </row>
@@ -882,7 +929,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>44409</v>
       </c>
       <c r="C13" t="s">
@@ -909,7 +956,7 @@
       <c r="J13">
         <v>5778.8</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>2.2200000000000002</v>
       </c>
     </row>
@@ -1121,6 +1168,198 @@
       </c>
       <c r="K19">
         <v>2.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1.31</v>
+      </c>
+      <c r="I22">
+        <v>2.97</v>
+      </c>
+      <c r="J22">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>0.81</v>
+      </c>
+      <c r="E23">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.81</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.76</v>
+      </c>
+      <c r="I23">
+        <v>5.14</v>
+      </c>
+      <c r="J23">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>0.86</v>
+      </c>
+      <c r="E24">
+        <v>0.76</v>
+      </c>
+      <c r="F24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I24">
+        <v>3.72</v>
+      </c>
+      <c r="J24">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>0.22</v>
+      </c>
+      <c r="E25">
+        <v>0.2</v>
+      </c>
+      <c r="F25">
+        <v>0.15</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I25">
+        <v>0.95</v>
+      </c>
+      <c r="J25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>0.24</v>
+      </c>
+      <c r="E26">
+        <v>0.32</v>
+      </c>
+      <c r="F26">
+        <v>0.3</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I26">
+        <v>2.11</v>
+      </c>
+      <c r="J26">
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>
@@ -1131,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF96F406-A874-445D-A72C-F452D3755E90}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1325,6 +1564,198 @@
         <v>5.14</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1.31</v>
+      </c>
+      <c r="I9">
+        <v>2.97</v>
+      </c>
+      <c r="J9">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0.81</v>
+      </c>
+      <c r="E10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.81</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.76</v>
+      </c>
+      <c r="I10">
+        <v>5.14</v>
+      </c>
+      <c r="J10">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>0.86</v>
+      </c>
+      <c r="E11">
+        <v>0.76</v>
+      </c>
+      <c r="F11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I11">
+        <v>3.72</v>
+      </c>
+      <c r="J11">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>0.22</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="F12">
+        <v>0.15</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I12">
+        <v>0.95</v>
+      </c>
+      <c r="J12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>0.24</v>
+      </c>
+      <c r="E13">
+        <v>0.32</v>
+      </c>
+      <c r="F13">
+        <v>0.3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I13">
+        <v>2.11</v>
+      </c>
+      <c r="J13">
+        <v>1.72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
